--- a/public/assets/template-import/master-asset.xlsx
+++ b/public/assets/template-import/master-asset.xlsx
@@ -3,20 +3,43 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66806077-8D88-4EE3-86E1-A4A68C0126DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FC4BB3-434A-474A-8E69-5C386F31DAE7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>fdsfs</t>
+  </si>
+  <si>
+    <t>sdfdsf</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>sub cluster</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,12 +355,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>